--- a/财务需求.xlsx
+++ b/财务需求.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\JavaTest\JAVA-TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IDEA项目\JAVA-TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB3AE0E-4F6C-4CB4-80A5-C3B945E4BDC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1E347E-C704-499F-B80A-65708B82C3B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>金华职业技术学院</t>
   </si>
   <si>
     <t>　</t>
-  </si>
-  <si>
-    <t>收入</t>
-  </si>
-  <si>
-    <t>水费</t>
-  </si>
-  <si>
-    <t>电费</t>
-  </si>
-  <si>
-    <t>毛利润</t>
   </si>
   <si>
     <t>合计</t>
@@ -56,13 +44,51 @@
     <t>项目名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>学校名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金华职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利润</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金华职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -138,7 +164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,6 +191,18 @@
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -536,7 +574,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C64" sqref="A1:XFD1048576"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1179,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1193,10 +1231,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="8">
         <v>43101</v>
@@ -1235,15 +1273,15 @@
         <v>43435</v>
       </c>
       <c r="O1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1293,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1343,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1393,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1441,15 +1479,246 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>43102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>43104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>43105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1111</v>
+      </c>
+      <c r="F7" s="9">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="11">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1111</v>
+      </c>
+      <c r="F8" s="9">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1111</v>
+      </c>
+      <c r="F9" s="9">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1111</v>
+      </c>
+      <c r="F10" s="9">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1111</v>
+      </c>
+      <c r="F11" s="9">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1111</v>
+      </c>
+      <c r="F12" s="9">
+        <v>43444</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A12"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/财务需求.xlsx
+++ b/财务需求.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IDEA项目\JAVA-TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\JavaTest\JAVA-TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1E347E-C704-499F-B80A-65708B82C3B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83380C75-BD34-42B4-B902-12F298A58D65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>金华职业技术学院</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>常州职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1218,7 +1222,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1482,7 +1486,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1506,7 +1510,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -1531,7 +1535,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -1549,7 +1555,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
@@ -1567,7 +1575,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" s="11">
         <v>1</v>
       </c>
@@ -1585,7 +1595,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
@@ -1623,7 +1635,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="11">
         <v>21</v>
       </c>
@@ -1641,7 +1655,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" s="11">
         <v>21</v>
       </c>
@@ -1659,7 +1675,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="11">
         <v>21</v>
       </c>
@@ -1677,7 +1695,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" s="11">
         <v>21</v>
       </c>
@@ -1695,7 +1715,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="B12" s="11">
         <v>21</v>
       </c>
@@ -1713,10 +1735,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A12"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
